--- a/TanuloKartyak/Resources/Raw/kartyak.xlsx
+++ b/TanuloKartyak/Resources/Raw/kartyak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bence\Dokumentumok\Visual Studio 2022\Repos\GitHub\TanuloKartyak\TanuloKartyak\Resources\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E777F2A6-EAA1-4D63-B8FF-0F446938EF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE9A682-B05D-4E78-B892-1EB57C3C5809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="78">
   <si>
     <t>Csap alakú mesiodens</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Taurodens keresztmetszeti képe</t>
   </si>
   <si>
-    <t>Körülírt zománchypoplasia a 31-es fo_x0002_gon (tejfogbaleset következménye)</t>
-  </si>
-  <si>
     <t>Amelogenesis imperfecta</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>Kisgyermekkorban szedett tetracyclin okozta elváltozás</t>
   </si>
   <si>
-    <t>Fluorid tabletta szedése és ma gas fluoridtartalmú ásványvíz rendszeres fogyasztása következtében kialakult fluorosis</t>
-  </si>
-  <si>
     <t>Születéskor kialakult hyperbilirubinaemia következménye</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>Elülső keresztharapás</t>
   </si>
   <si>
-    <t>A kis térfogaton ké szített 3D felvételen egy bal felső perzisztáló tejszemfog és retineált maradó szemfog térbeli elhelyezkedése figyelhető meg</t>
-  </si>
-  <si>
     <t>Distoocclusalis caries a jobb alsó első tejmolarison, caries incipiens mesialisan a második tejőrlőn</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>Felső metszőfogak korona fracturája</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tejmetszőfog balesete következtében kialakult Turner-fog</t>
-  </si>
-  <si>
     <t>Vírusfertőzés során kialakult metsző-molaris fog elszíneződés</t>
   </si>
   <si>
@@ -267,6 +255,21 @@
   </si>
   <si>
     <t>09</t>
+  </si>
+  <si>
+    <t>Mindkét felső quadransban distomolaris látható („kilencesek”)</t>
+  </si>
+  <si>
+    <t>Körülírt zománchypoplasia a 31-es fogon (tejfogbaleset következménye)</t>
+  </si>
+  <si>
+    <t>A kis térfogaton készített 3D felvételen egy bal felső perzisztáló tejszemfog és retineált maradó szemfog térbeli elhelyezkedése figyelhető meg</t>
+  </si>
+  <si>
+    <t>Tejmetszőfog balesete következtében kialakult Turner-fog</t>
+  </si>
+  <si>
+    <t>Fluorid tabletta szedése és magas fluoridtartalmú ásványvíz rendszeres fogyasztása következtében kialakult fluorosis</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,31 +628,31 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="str">
         <f>CONCATENATE(A1,B1,C1)</f>
         <v>card01img.PNG</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>CONCATENATE(A2,B2,C2)</f>
@@ -661,49 +664,49 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D65" si="0">CONCATENATE(A3,B3,C3)</f>
         <v>card03img.PNG</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card04img.PNG</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -715,85 +718,85 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card06img.PNG</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card07img.PNG</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card08img.PNG</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card09img.PNG</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -805,1046 +808,1046 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card11img.PNG</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card12img.PNG</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card13img.PNG</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5">
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card14img.PNG</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card15img.PNG</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card16img.PNG</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B17" s="5">
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card17img.PNG</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card18img.PNG</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19" s="5">
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card19img.PNG</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B20" s="5">
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card20img.PNG</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21" s="5">
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card21img.PNG</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5">
         <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card22img.PNG</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="5">
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card23img.PNG</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B24" s="5">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card24img.PNG</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5">
         <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card25img.PNG</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5">
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card26img.PNG</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B27" s="5">
         <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card27img.PNG</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B28" s="5">
         <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card28img.PNG</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B29" s="5">
         <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card29img.PNG</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5">
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card30img.PNG</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B31" s="5">
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card31img.PNG</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B32" s="5">
         <v>32</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card32img.PNG</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B33" s="5">
         <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card33img.PNG</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B34" s="5">
         <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card34img.PNG</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B35" s="5">
         <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card35img.PNG</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B36" s="5">
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card36img.PNG</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B37" s="5">
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card37img.PNG</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B38" s="5">
         <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card38img.PNG</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B39" s="5">
         <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card39img.PNG</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B40" s="5">
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card40img.PNG</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B41" s="5">
         <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card41img.PNG</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B42" s="5">
         <v>42</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card42img.PNG</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B43" s="5">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card43img.PNG</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B44" s="5">
         <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card44img.PNG</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B45" s="5">
         <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card45img.PNG</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B46" s="5">
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card46img.PNG</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B47" s="5">
         <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card47img.PNG</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B48" s="5">
         <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card48img.PNG</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B49" s="5">
         <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card49img.PNG</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B50" s="5">
         <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card50img.PNG</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B51" s="5">
         <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card51img.PNG</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B52" s="5">
         <v>52</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card52img.PNG</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B53" s="5">
         <v>53</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card53img.PNG</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B54" s="5">
         <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card54img.PNG</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B55" s="5">
         <v>55</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card55img.PNG</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B56" s="5">
         <v>56</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card56img.PNG</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B57" s="5">
         <v>57</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card57img.PNG</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B58" s="5">
         <v>58</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card58img.PNG</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B59" s="5">
         <v>59</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card59img.PNG</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B60" s="5">
         <v>60</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card60img.PNG</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B61" s="5">
         <v>61</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card61img.PNG</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B62" s="5">
         <v>62</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card62img.PNG</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="5">
         <v>63</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card63img.PNG</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B64" s="5">
         <v>64</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card64img.PNG</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B65" s="5">
         <v>65</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>card65img.PNG</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B66" s="5">
         <v>66</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D66" s="1" t="str">
         <f t="shared" ref="D66:D68" si="1">CONCATENATE(A66,B66,C66)</f>
         <v>card66img.PNG</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B67" s="5">
         <v>67</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>card67img.PNG</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B68" s="5">
         <v>68</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>card68img.PNG</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
